--- a/data/meta_data/plate13_setup_final.xlsx
+++ b/data/meta_data/plate13_setup_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EE9EE5-E9B1-6B47-A3F5-4DB5B9F094DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B1AC6-5AC6-AB4A-B9CA-3D62FD2ACFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22540" yWindow="7980" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22560" yWindow="7980" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate13_setup_final" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
   </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1623,7 +1623,7 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>9</v>
       </c>
     </row>
